--- a/tables/TableSX_dcrab_seasons.xlsx
+++ b/tables/TableSX_dcrab_seasons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/domoic_acid_mgmt/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCED6681-2213-964B-9FE6-D5E166F13F50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4C4C8F-41E2-3340-8DA3-D43DC273B9C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3860" yWindow="6320" windowWidth="28040" windowHeight="17440" xr2:uid="{11E45FF2-4E20-4241-8C24-FADD44DBF932}"/>
   </bookViews>
@@ -521,7 +521,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
